--- a/time.xlsx
+++ b/time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clemson-my.sharepoint.com/personal/kcable_clemson_edu/Documents/Documents/GitHub/PLC-Lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\OneDrive - Clemson University\Documents\GitHub\PLC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{67828375-44F5-4EB2-9BC1-D4C00793AFE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0E275C57-BE7E-49FA-B4F6-49F7F96A3162}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{67828375-44F5-4EB2-9BC1-D4C00793AFE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F1F70EBF-2EAD-456C-B961-3022D49753E8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C727DB70-B944-4523-995D-816683EDABC6}"/>
+    <workbookView xWindow="1704" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{C727DB70-B944-4523-995D-816683EDABC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -121,6 +121,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -440,20 +443,20 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -480,99 +483,124 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1">
-        <v>7</v>
+        <f ca="1">RAND()</f>
+        <v>7.3104955465910226E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:G8" ca="1" si="0">RAND()</f>
+        <v>0.98663720762819318</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51661451714893403</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.920733039340468E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60583248317409089</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1">
-        <v>7</v>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:C8" ca="1" si="1">RAND()</f>
+        <v>0.54713340050946235</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9638174341987652</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21723859297292858</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.92866989695862445</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32808049711542475</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1">
-        <v>7</v>
+      <c r="C6" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.63763215583214017</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24597559135972824</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73341662853159284</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34222530631720438</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88774329982109013</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1">
-        <v>7</v>
+      <c r="C7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.24787169265703013</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12118159988866317</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83114769510349296</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89795498999191969</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39937318863729299</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>6</v>
-      </c>
-      <c r="G8" s="1">
-        <v>7</v>
+      <c r="C8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.93523690472623888</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.85058800564483117</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.5183073550159758E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14960818821319688</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.91386272105680499</v>
       </c>
     </row>
   </sheetData>
@@ -584,6 +612,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003E31C581AABD3D438D1210A0B9E9BAAA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a880cdde40dd4aeca72a964086578e6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c349c498-aafa-4611-9c89-399ce2bd3502" xmlns:ns4="dabdaea4-a51c-41c0-88c7-2dcca5159689" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8273ed8f1d147cc376b7c2884efaf481" ns3:_="" ns4:_="">
     <xsd:import namespace="c349c498-aafa-4611-9c89-399ce2bd3502"/>
@@ -806,22 +849,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BBD9A1A-72A1-4B41-9F78-3EA28F66DB27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F114795D-63B0-43C7-823F-8721037B8CE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF86F206-E9C2-48BA-BF91-AFC8614BECEC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -838,21 +883,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F114795D-63B0-43C7-823F-8721037B8CE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BBD9A1A-72A1-4B41-9F78-3EA28F66DB27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/time.xlsx
+++ b/time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\OneDrive - Clemson University\Documents\GitHub\PLC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{67828375-44F5-4EB2-9BC1-D4C00793AFE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F1F70EBF-2EAD-456C-B961-3022D49753E8}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{67828375-44F5-4EB2-9BC1-D4C00793AFE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{336975BD-AA4F-4900-8FEB-5BEB52B6B9BD}"/>
   <bookViews>
-    <workbookView xWindow="1704" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{C727DB70-B944-4523-995D-816683EDABC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C727DB70-B944-4523-995D-816683EDABC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,24 +483,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <f ca="1">RAND()</f>
-        <v>7.3104955465910226E-3</v>
+        <v>2.89</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:G8" ca="1" si="0">RAND()</f>
-        <v>0.98663720762819318</v>
+        <v>5.12</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.51661451714893403</v>
+        <v>4.03</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.920733039340468E-2</v>
+        <v>2.82</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.60583248317409089</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -508,24 +503,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C8" ca="1" si="1">RAND()</f>
-        <v>0.54713340050946235</v>
+        <v>3.22</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9638174341987652</v>
+        <v>4.67</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.21723859297292858</v>
+        <v>3.26</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.92866989695862445</v>
+        <v>2.15</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32808049711542475</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -533,24 +523,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.63763215583214017</v>
+        <v>3.6</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.24597559135972824</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.73341662853159284</v>
+        <v>3.16</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.34222530631720438</v>
+        <v>3.1</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.88774329982109013</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -558,24 +543,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.24787169265703013</v>
+        <v>3.25</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.12118159988866317</v>
+        <v>5.23</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.83114769510349296</v>
+        <v>3.32</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89795498999191969</v>
+        <v>1.85</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39937318863729299</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -583,24 +563,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.93523690472623888</v>
+        <v>3.05</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.85058800564483117</v>
+        <v>5.36</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.5183073550159758E-2</v>
+        <v>3.26</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14960818821319688</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.91386272105680499</v>
+        <v>3.73</v>
       </c>
     </row>
   </sheetData>
@@ -618,15 +593,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003E31C581AABD3D438D1210A0B9E9BAAA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a880cdde40dd4aeca72a964086578e6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c349c498-aafa-4611-9c89-399ce2bd3502" xmlns:ns4="dabdaea4-a51c-41c0-88c7-2dcca5159689" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8273ed8f1d147cc376b7c2884efaf481" ns3:_="" ns4:_="">
     <xsd:import namespace="c349c498-aafa-4611-9c89-399ce2bd3502"/>
@@ -849,6 +815,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BBD9A1A-72A1-4B41-9F78-3EA28F66DB27}">
   <ds:schemaRefs>
@@ -859,14 +834,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F114795D-63B0-43C7-823F-8721037B8CE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF86F206-E9C2-48BA-BF91-AFC8614BECEC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -883,4 +850,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F114795D-63B0-43C7-823F-8721037B8CE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>